--- a/文档/项目文档-2024秋季学期/附件3-项目数据字典模板（2024秋）.xlsx
+++ b/文档/项目文档-2024秋季学期/附件3-项目数据字典模板（2024秋）.xlsx
@@ -1631,7 +1631,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{51F05DE3-CC38-4886-92DD-E7E150D94AEC}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3EE6EB08-7FD1-4134-BB1E-796BEA7437E9}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1933,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="B1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
